--- a/RingCentralIntern/RingTernStampCard.xlsx
+++ b/RingCentralIntern/RingTernStampCard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="30140" yWindow="1480" windowWidth="25040" windowHeight="17660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
   <si>
     <t>Monday</t>
   </si>
@@ -54,15 +54,6 @@
     <t>Total Hours for the week</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
     <t>Week 4</t>
   </si>
   <si>
@@ -88,6 +79,24 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Monday 25</t>
+  </si>
+  <si>
+    <t>Friday 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday </t>
+  </si>
+  <si>
+    <t>Week 1 (25 - 29) May</t>
+  </si>
+  <si>
+    <t>Week 3 (8 - 12)</t>
+  </si>
+  <si>
+    <t>Week 2 (1 - 5)</t>
   </si>
 </sst>
 </file>
@@ -781,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -792,7 +801,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="28" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -820,7 +829,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
@@ -890,7 +899,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B7" s="21">
         <v>0.3125</v>
@@ -924,7 +933,7 @@
     <row r="10" spans="1:6" ht="16" thickBot="1"/>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -952,7 +961,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B13" s="21">
         <v>0.375</v>
@@ -1066,7 +1075,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="31" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -1119,40 +1128,78 @@
       <c r="B24" s="22">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D24" s="22">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F24" s="6">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E25" s="22">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F25" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="6">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E27" s="22">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F27" s="6">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1">
       <c r="A28" s="34" t="s">
@@ -1162,12 +1209,15 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="20">
+        <f xml:space="preserve"> SUM(F23:F27)</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1"/>
     <row r="31" spans="1:6">
       <c r="A31" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -1197,7 +1247,9 @@
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="22">
+        <v>0.375</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1256,7 +1308,7 @@
     <row r="40" spans="1:6" ht="16" thickBot="1"/>
     <row r="41" spans="1:6">
       <c r="A41" s="23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -1345,7 +1397,7 @@
     <row r="50" spans="1:6" ht="16" thickBot="1"/>
     <row r="51" spans="1:6">
       <c r="A51" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -1434,7 +1486,7 @@
     <row r="60" spans="1:6" ht="16" thickBot="1"/>
     <row r="61" spans="1:6">
       <c r="A61" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -1523,7 +1575,7 @@
     <row r="70" spans="1:6" ht="16" thickBot="1"/>
     <row r="71" spans="1:6">
       <c r="A71" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
@@ -1612,7 +1664,7 @@
     <row r="80" spans="1:6" ht="16" thickBot="1"/>
     <row r="81" spans="1:6">
       <c r="A81" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -1701,7 +1753,7 @@
     <row r="90" spans="1:6" ht="16" thickBot="1"/>
     <row r="91" spans="1:6">
       <c r="A91" s="23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
@@ -1790,7 +1842,7 @@
     <row r="100" spans="1:6" ht="16" thickBot="1"/>
     <row r="101" spans="1:6">
       <c r="A101" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="24"/>
@@ -1879,7 +1931,7 @@
     <row r="110" spans="1:6" ht="16" thickBot="1"/>
     <row r="111" spans="1:6">
       <c r="A111" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>

--- a/RingCentralIntern/RingTernStampCard.xlsx
+++ b/RingCentralIntern/RingTernStampCard.xlsx
@@ -407,6 +407,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,15 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -800,14 +800,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
       <c r="A2" s="7"/>
@@ -918,13 +918,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="19">
         <f xml:space="preserve"> F4 +F5 + F6 + F7</f>
         <v>32.5</v>
@@ -932,14 +932,14 @@
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1">
       <c r="A12" s="10"/>
@@ -1061,27 +1061,27 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" thickBot="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="19">
         <f xml:space="preserve"> SUM(F13:F17)</f>
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1">
       <c r="A22" s="13"/>
@@ -1202,13 +1202,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="20">
         <f xml:space="preserve"> SUM(F23:F27)</f>
         <v>44</v>
@@ -1216,14 +1216,14 @@
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1"/>
     <row r="31" spans="1:6">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1">
       <c r="A32" s="16"/>
@@ -1250,71 +1250,122 @@
       <c r="B33" s="22">
         <v>0.375</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F33" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="6"/>
+      <c r="B34" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="6">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="22">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C35" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D35" s="22">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F35" s="6">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F36" s="6">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="16" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0.1875</v>
+      </c>
+      <c r="F37" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="16" thickBot="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="20"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="20">
+        <f xml:space="preserve"> SUM(F33:F37)</f>
+        <v>41.5</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1"/>
     <row r="41" spans="1:6">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="13"/>
@@ -1338,17 +1389,29 @@
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="6"/>
+      <c r="B43" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F43" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="22">
+        <v>0.375</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -1385,25 +1448,25 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="16" thickBot="1">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="20"/>
     </row>
     <row r="50" spans="1:6" ht="16" thickBot="1"/>
     <row r="51" spans="1:6">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" ht="16" thickBot="1">
       <c r="A52" s="16"/>
@@ -1474,25 +1537,25 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="16" thickBot="1">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="20"/>
     </row>
     <row r="60" spans="1:6" ht="16" thickBot="1"/>
     <row r="61" spans="1:6">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6" ht="16" thickBot="1">
       <c r="A62" s="16"/>
@@ -1563,25 +1626,25 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="16" thickBot="1">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="20"/>
     </row>
     <row r="70" spans="1:6" ht="16" thickBot="1"/>
     <row r="71" spans="1:6">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
     </row>
     <row r="72" spans="1:6" ht="16" thickBot="1">
       <c r="A72" s="13"/>
@@ -1652,25 +1715,25 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="36"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
       <c r="F78" s="20"/>
     </row>
     <row r="80" spans="1:6" ht="16" thickBot="1"/>
     <row r="81" spans="1:6">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
     </row>
     <row r="82" spans="1:6" ht="16" thickBot="1">
       <c r="A82" s="13"/>
@@ -1741,25 +1804,25 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16" thickBot="1">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="20"/>
     </row>
     <row r="90" spans="1:6" ht="16" thickBot="1"/>
     <row r="91" spans="1:6">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" spans="1:6" ht="16" thickBot="1">
       <c r="A92" s="13"/>
@@ -1830,25 +1893,25 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16" thickBot="1">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="36"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="20"/>
     </row>
     <row r="100" spans="1:6" ht="16" thickBot="1"/>
     <row r="101" spans="1:6">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="25"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="28"/>
     </row>
     <row r="102" spans="1:6" ht="16" thickBot="1">
       <c r="A102" s="13"/>
@@ -1919,25 +1982,25 @@
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="16" thickBot="1">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="36"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
       <c r="F108" s="20"/>
     </row>
     <row r="110" spans="1:6" ht="16" thickBot="1"/>
     <row r="111" spans="1:6">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="25"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6" ht="16" thickBot="1">
       <c r="A112" s="13"/>
@@ -2008,17 +2071,28 @@
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" ht="16" thickBot="1">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="36"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25"/>
       <c r="F118" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A61:F61"/>
@@ -2032,17 +2106,6 @@
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/RingCentralIntern/RingTernStampCard.xlsx
+++ b/RingCentralIntern/RingTernStampCard.xlsx
@@ -54,12 +54,6 @@
     <t>Total Hours for the week</t>
   </si>
   <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
     <t>Week 6</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Week 2 (1 - 5)</t>
+  </si>
+  <si>
+    <t>Week 4 (15 - 19)</t>
+  </si>
+  <si>
+    <t>Week 5 (22 - 26)</t>
   </si>
 </sst>
 </file>
@@ -407,15 +407,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +438,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -800,14 +800,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
       <c r="A2" s="7"/>
@@ -829,7 +829,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
@@ -899,7 +899,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="21">
         <v>0.3125</v>
@@ -918,13 +918,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="19">
         <f xml:space="preserve"> F4 +F5 + F6 + F7</f>
         <v>32.5</v>
@@ -932,14 +932,14 @@
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1">
       <c r="A12" s="10"/>
@@ -961,7 +961,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="21">
         <v>0.375</v>
@@ -1061,27 +1061,27 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" thickBot="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="19">
         <f xml:space="preserve"> SUM(F13:F17)</f>
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+      <c r="A21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1">
       <c r="A22" s="13"/>
@@ -1202,13 +1202,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="20">
         <f xml:space="preserve"> SUM(F23:F27)</f>
         <v>44</v>
@@ -1216,14 +1216,14 @@
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1"/>
     <row r="31" spans="1:6">
-      <c r="A31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1">
       <c r="A32" s="16"/>
@@ -1344,13 +1344,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" thickBot="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="20">
         <f xml:space="preserve"> SUM(F33:F37)</f>
         <v>41.5</v>
@@ -1358,14 +1358,14 @@
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1"/>
     <row r="41" spans="1:6">
-      <c r="A41" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
+      <c r="A41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="13"/>
@@ -1412,20 +1412,38 @@
       <c r="B44" s="22">
         <v>0.375</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="6"/>
+      <c r="C44" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F44" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="6"/>
+      <c r="B45" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C45" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D45" s="22">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F45" s="6">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
@@ -1448,25 +1466,28 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="16" thickBot="1">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="20"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="20">
+        <f xml:space="preserve"> SUM(F43:F47)</f>
+        <v>26.5</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="16" thickBot="1"/>
     <row r="51" spans="1:6">
-      <c r="A51" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
+      <c r="A51" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="16" thickBot="1">
       <c r="A52" s="16"/>
@@ -1537,25 +1558,25 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="16" thickBot="1">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="20"/>
     </row>
     <row r="60" spans="1:6" ht="16" thickBot="1"/>
     <row r="61" spans="1:6">
-      <c r="A61" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
+      <c r="A61" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" ht="16" thickBot="1">
       <c r="A62" s="16"/>
@@ -1626,25 +1647,25 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="16" thickBot="1">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
       <c r="F68" s="20"/>
     </row>
     <row r="70" spans="1:6" ht="16" thickBot="1"/>
     <row r="71" spans="1:6">
-      <c r="A71" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
+      <c r="A71" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" ht="16" thickBot="1">
       <c r="A72" s="13"/>
@@ -1715,25 +1736,25 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="20"/>
     </row>
     <row r="80" spans="1:6" ht="16" thickBot="1"/>
     <row r="81" spans="1:6">
-      <c r="A81" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28"/>
+      <c r="A81" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
     </row>
     <row r="82" spans="1:6" ht="16" thickBot="1">
       <c r="A82" s="13"/>
@@ -1804,25 +1825,25 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16" thickBot="1">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="20"/>
     </row>
     <row r="90" spans="1:6" ht="16" thickBot="1"/>
     <row r="91" spans="1:6">
-      <c r="A91" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="28"/>
+      <c r="A91" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6" ht="16" thickBot="1">
       <c r="A92" s="13"/>
@@ -1893,25 +1914,25 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16" thickBot="1">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="25"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="20"/>
     </row>
     <row r="100" spans="1:6" ht="16" thickBot="1"/>
     <row r="101" spans="1:6">
-      <c r="A101" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="28"/>
+      <c r="A101" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="25"/>
     </row>
     <row r="102" spans="1:6" ht="16" thickBot="1">
       <c r="A102" s="13"/>
@@ -1982,25 +2003,25 @@
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="16" thickBot="1">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="25"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="20"/>
     </row>
     <row r="110" spans="1:6" ht="16" thickBot="1"/>
     <row r="111" spans="1:6">
-      <c r="A111" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="28"/>
+      <c r="A111" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
     </row>
     <row r="112" spans="1:6" ht="16" thickBot="1">
       <c r="A112" s="13"/>
@@ -2071,28 +2092,17 @@
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" ht="16" thickBot="1">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="36"/>
       <c r="F118" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A61:F61"/>
@@ -2106,6 +2116,17 @@
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/RingCentralIntern/RingTernStampCard.xlsx
+++ b/RingCentralIntern/RingTernStampCard.xlsx
@@ -54,9 +54,6 @@
     <t>Total Hours for the week</t>
   </si>
   <si>
-    <t>Week 6</t>
-  </si>
-  <si>
     <t>Week 7</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Week 5 (22 - 26)</t>
+  </si>
+  <si>
+    <t>Week 6 (29 - 3)</t>
   </si>
 </sst>
 </file>
@@ -356,8 +356,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -407,6 +413,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,25 +455,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -790,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -800,14 +812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
       <c r="A2" s="7"/>
@@ -829,7 +841,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
@@ -899,7 +911,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="21">
         <v>0.3125</v>
@@ -918,13 +930,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="19">
         <f xml:space="preserve"> F4 +F5 + F6 + F7</f>
         <v>32.5</v>
@@ -932,14 +944,14 @@
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1">
       <c r="A12" s="10"/>
@@ -961,7 +973,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="21">
         <v>0.375</v>
@@ -1061,27 +1073,27 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" thickBot="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="19">
         <f xml:space="preserve"> SUM(F13:F17)</f>
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1">
       <c r="A22" s="13"/>
@@ -1202,13 +1214,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="20">
         <f xml:space="preserve"> SUM(F23:F27)</f>
         <v>44</v>
@@ -1216,14 +1228,14 @@
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1"/>
     <row r="31" spans="1:6">
-      <c r="A31" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="A31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1">
       <c r="A32" s="16"/>
@@ -1337,35 +1349,35 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E37" s="22">
-        <v>0.1875</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="F37" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" thickBot="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="20">
         <f xml:space="preserve"> SUM(F33:F37)</f>
-        <v>41.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1"/>
     <row r="41" spans="1:6">
-      <c r="A41" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="A41" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="13"/>
@@ -1449,45 +1461,65 @@
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="6"/>
+      <c r="B46" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F46" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="16" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="22">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C47" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F47" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="16" thickBot="1">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="20">
         <f xml:space="preserve"> SUM(F43:F47)</f>
-        <v>26.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" thickBot="1"/>
     <row r="51" spans="1:6">
-      <c r="A51" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
+      <c r="A51" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" ht="16" thickBot="1">
       <c r="A52" s="16"/>
@@ -1511,21 +1543,41 @@
       <c r="A53" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="6"/>
+      <c r="B53" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C53" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E53" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F53" s="6">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="6"/>
+      <c r="B54" s="22">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C54" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D54" s="22">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F54" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
@@ -1558,25 +1610,28 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="16" thickBot="1">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="20"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="20">
+        <f xml:space="preserve"> SUM(F53:F57)</f>
+        <v>16.5</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="16" thickBot="1"/>
     <row r="61" spans="1:6">
-      <c r="A61" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
+      <c r="A61" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6" ht="16" thickBot="1">
       <c r="A62" s="16"/>
@@ -1647,25 +1702,25 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="16" thickBot="1">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="20"/>
     </row>
     <row r="70" spans="1:6" ht="16" thickBot="1"/>
     <row r="71" spans="1:6">
-      <c r="A71" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
+      <c r="A71" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
     </row>
     <row r="72" spans="1:6" ht="16" thickBot="1">
       <c r="A72" s="13"/>
@@ -1736,25 +1791,25 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="36"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
       <c r="F78" s="20"/>
     </row>
     <row r="80" spans="1:6" ht="16" thickBot="1"/>
     <row r="81" spans="1:6">
-      <c r="A81" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
+      <c r="A81" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
     </row>
     <row r="82" spans="1:6" ht="16" thickBot="1">
       <c r="A82" s="13"/>
@@ -1825,25 +1880,25 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16" thickBot="1">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="20"/>
     </row>
     <row r="90" spans="1:6" ht="16" thickBot="1"/>
     <row r="91" spans="1:6">
-      <c r="A91" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
+      <c r="A91" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" spans="1:6" ht="16" thickBot="1">
       <c r="A92" s="13"/>
@@ -1914,25 +1969,25 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16" thickBot="1">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="36"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="20"/>
     </row>
     <row r="100" spans="1:6" ht="16" thickBot="1"/>
     <row r="101" spans="1:6">
-      <c r="A101" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="25"/>
+      <c r="A101" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="28"/>
     </row>
     <row r="102" spans="1:6" ht="16" thickBot="1">
       <c r="A102" s="13"/>
@@ -2003,25 +2058,25 @@
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="16" thickBot="1">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="36"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
       <c r="F108" s="20"/>
     </row>
     <row r="110" spans="1:6" ht="16" thickBot="1"/>
     <row r="111" spans="1:6">
-      <c r="A111" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="25"/>
+      <c r="A111" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6" ht="16" thickBot="1">
       <c r="A112" s="13"/>
@@ -2092,17 +2147,28 @@
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" ht="16" thickBot="1">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="36"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25"/>
       <c r="F118" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A61:F61"/>
@@ -2116,17 +2182,6 @@
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/RingCentralIntern/RingTernStampCard.xlsx
+++ b/RingCentralIntern/RingTernStampCard.xlsx
@@ -413,15 +413,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,6 +444,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -812,14 +812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
       <c r="A2" s="7"/>
@@ -930,13 +930,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="19">
         <f xml:space="preserve"> F4 +F5 + F6 + F7</f>
         <v>32.5</v>
@@ -944,14 +944,14 @@
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1">
       <c r="A12" s="10"/>
@@ -1073,27 +1073,27 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" thickBot="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="19">
         <f xml:space="preserve"> SUM(F13:F17)</f>
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1">
       <c r="A22" s="13"/>
@@ -1214,13 +1214,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="20">
         <f xml:space="preserve"> SUM(F23:F27)</f>
         <v>44</v>
@@ -1228,14 +1228,14 @@
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1"/>
     <row r="31" spans="1:6">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1">
       <c r="A32" s="16"/>
@@ -1356,13 +1356,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" thickBot="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="20">
         <f xml:space="preserve"> SUM(F33:F37)</f>
         <v>42.5</v>
@@ -1370,14 +1370,14 @@
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1"/>
     <row r="41" spans="1:6">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="13"/>
@@ -1498,13 +1498,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" thickBot="1">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="20">
         <f xml:space="preserve"> SUM(F43:F47)</f>
         <v>43.5</v>
@@ -1512,14 +1512,14 @@
     </row>
     <row r="50" spans="1:6" ht="16" thickBot="1"/>
     <row r="51" spans="1:6">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="16" thickBot="1">
       <c r="A52" s="16"/>
@@ -1583,21 +1583,41 @@
       <c r="A55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="6"/>
+      <c r="B55" s="22">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C55" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E55" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="F55" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="6"/>
+      <c r="B56" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="C56" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E56" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="F56" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="16" thickBot="1">
       <c r="A57" s="5" t="s">
@@ -1610,28 +1630,28 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="16" thickBot="1">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="20">
         <f xml:space="preserve"> SUM(F53:F57)</f>
-        <v>16.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" thickBot="1"/>
     <row r="61" spans="1:6">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" ht="16" thickBot="1">
       <c r="A62" s="16"/>
@@ -1655,21 +1675,41 @@
       <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="6"/>
+      <c r="B63" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C63" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E63" s="22">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F63" s="6">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="6"/>
+      <c r="B64" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C64" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D64" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E64" s="22">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F64" s="6">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
@@ -1702,25 +1742,28 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="16" thickBot="1">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="20"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="20">
+        <f xml:space="preserve"> SUM(F63:F67)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="16" thickBot="1"/>
     <row r="71" spans="1:6">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" ht="16" thickBot="1">
       <c r="A72" s="13"/>
@@ -1791,25 +1834,25 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="20"/>
     </row>
     <row r="80" spans="1:6" ht="16" thickBot="1"/>
     <row r="81" spans="1:6">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
     </row>
     <row r="82" spans="1:6" ht="16" thickBot="1">
       <c r="A82" s="13"/>
@@ -1880,25 +1923,25 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16" thickBot="1">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="20"/>
     </row>
     <row r="90" spans="1:6" ht="16" thickBot="1"/>
     <row r="91" spans="1:6">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="28"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6" ht="16" thickBot="1">
       <c r="A92" s="13"/>
@@ -1969,25 +2012,25 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16" thickBot="1">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="25"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="20"/>
     </row>
     <row r="100" spans="1:6" ht="16" thickBot="1"/>
     <row r="101" spans="1:6">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="28"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="25"/>
     </row>
     <row r="102" spans="1:6" ht="16" thickBot="1">
       <c r="A102" s="13"/>
@@ -2058,25 +2101,25 @@
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="16" thickBot="1">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="25"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="20"/>
     </row>
     <row r="110" spans="1:6" ht="16" thickBot="1"/>
     <row r="111" spans="1:6">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="28"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
     </row>
     <row r="112" spans="1:6" ht="16" thickBot="1">
       <c r="A112" s="13"/>
@@ -2147,28 +2190,17 @@
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" ht="16" thickBot="1">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="36"/>
       <c r="F118" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A61:F61"/>
@@ -2182,6 +2214,17 @@
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/RingCentralIntern/RingTernStampCard.xlsx
+++ b/RingCentralIntern/RingTernStampCard.xlsx
@@ -413,6 +413,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,15 +453,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -812,14 +812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
       <c r="A2" s="7"/>
@@ -930,13 +930,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="19">
         <f xml:space="preserve"> F4 +F5 + F6 + F7</f>
         <v>32.5</v>
@@ -944,14 +944,14 @@
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1">
       <c r="A12" s="10"/>
@@ -1073,27 +1073,27 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" thickBot="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="19">
         <f xml:space="preserve"> SUM(F13:F17)</f>
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1">
       <c r="A22" s="13"/>
@@ -1214,13 +1214,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="20">
         <f xml:space="preserve"> SUM(F23:F27)</f>
         <v>44</v>
@@ -1228,14 +1228,14 @@
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1"/>
     <row r="31" spans="1:6">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1">
       <c r="A32" s="16"/>
@@ -1356,13 +1356,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" thickBot="1">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="20">
         <f xml:space="preserve"> SUM(F33:F37)</f>
         <v>42.5</v>
@@ -1370,14 +1370,14 @@
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1"/>
     <row r="41" spans="1:6">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="13"/>
@@ -1498,13 +1498,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" thickBot="1">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="20">
         <f xml:space="preserve"> SUM(F43:F47)</f>
         <v>43.5</v>
@@ -1512,14 +1512,14 @@
     </row>
     <row r="50" spans="1:6" ht="16" thickBot="1"/>
     <row r="51" spans="1:6">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" ht="16" thickBot="1">
       <c r="A52" s="16"/>
@@ -1630,13 +1630,13 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="16" thickBot="1">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="20">
         <f xml:space="preserve"> SUM(F53:F57)</f>
         <v>32.5</v>
@@ -1644,14 +1644,14 @@
     </row>
     <row r="60" spans="1:6" ht="16" thickBot="1"/>
     <row r="61" spans="1:6">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6" ht="16" thickBot="1">
       <c r="A62" s="16"/>
@@ -1705,10 +1705,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E64" s="22">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F64" s="6">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1742,28 +1742,28 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="16" thickBot="1">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="20">
         <f xml:space="preserve"> SUM(F63:F67)</f>
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16" thickBot="1"/>
     <row r="71" spans="1:6">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
     </row>
     <row r="72" spans="1:6" ht="16" thickBot="1">
       <c r="A72" s="13"/>
@@ -1834,25 +1834,25 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="36"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
       <c r="F78" s="20"/>
     </row>
     <row r="80" spans="1:6" ht="16" thickBot="1"/>
     <row r="81" spans="1:6">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
     </row>
     <row r="82" spans="1:6" ht="16" thickBot="1">
       <c r="A82" s="13"/>
@@ -1923,25 +1923,25 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16" thickBot="1">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="20"/>
     </row>
     <row r="90" spans="1:6" ht="16" thickBot="1"/>
     <row r="91" spans="1:6">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" spans="1:6" ht="16" thickBot="1">
       <c r="A92" s="13"/>
@@ -2012,25 +2012,25 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16" thickBot="1">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="36"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="20"/>
     </row>
     <row r="100" spans="1:6" ht="16" thickBot="1"/>
     <row r="101" spans="1:6">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="25"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="28"/>
     </row>
     <row r="102" spans="1:6" ht="16" thickBot="1">
       <c r="A102" s="13"/>
@@ -2101,25 +2101,25 @@
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="16" thickBot="1">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="36"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
       <c r="F108" s="20"/>
     </row>
     <row r="110" spans="1:6" ht="16" thickBot="1"/>
     <row r="111" spans="1:6">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="25"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" spans="1:6" ht="16" thickBot="1">
       <c r="A112" s="13"/>
@@ -2190,17 +2190,28 @@
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" ht="16" thickBot="1">
-      <c r="A118" s="34" t="s">
+      <c r="A118" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="36"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25"/>
       <c r="F118" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A61:F61"/>
@@ -2214,17 +2225,6 @@
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/RingCentralIntern/RingTernStampCard.xlsx
+++ b/RingCentralIntern/RingTernStampCard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30140" yWindow="1480" windowWidth="25040" windowHeight="17660" tabRatio="500"/>
+    <workbookView xWindow="30160" yWindow="1460" windowWidth="25040" windowHeight="17660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>Total Hours for the week</t>
   </si>
   <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
     <t>Week 9</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Week 6 (29 - 3)</t>
+  </si>
+  <si>
+    <t>Week 7 (6 - 10)</t>
+  </si>
+  <si>
+    <t>Week 8 (13 - 17)</t>
   </si>
 </sst>
 </file>
@@ -413,15 +413,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,6 +444,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -803,7 +803,7 @@
   <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -812,14 +812,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
       <c r="A2" s="7"/>
@@ -841,7 +841,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
@@ -911,7 +911,7 @@
     </row>
     <row r="7" spans="1:6" ht="16" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="21">
         <v>0.3125</v>
@@ -930,13 +930,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="19">
         <f xml:space="preserve"> F4 +F5 + F6 + F7</f>
         <v>32.5</v>
@@ -944,14 +944,14 @@
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1"/>
     <row r="11" spans="1:6">
-      <c r="A11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="16" thickBot="1">
       <c r="A12" s="10"/>
@@ -973,7 +973,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="21">
         <v>0.375</v>
@@ -1073,27 +1073,27 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" thickBot="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="19">
         <f xml:space="preserve"> SUM(F13:F17)</f>
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
+      <c r="A21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="16" thickBot="1">
       <c r="A22" s="13"/>
@@ -1214,13 +1214,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" thickBot="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="20">
         <f xml:space="preserve"> SUM(F23:F27)</f>
         <v>44</v>
@@ -1228,14 +1228,14 @@
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1"/>
     <row r="31" spans="1:6">
-      <c r="A31" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="A31" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" ht="16" thickBot="1">
       <c r="A32" s="16"/>
@@ -1356,13 +1356,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="16" thickBot="1">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="20">
         <f xml:space="preserve"> SUM(F33:F37)</f>
         <v>42.5</v>
@@ -1370,14 +1370,14 @@
     </row>
     <row r="40" spans="1:6" ht="16" thickBot="1"/>
     <row r="41" spans="1:6">
-      <c r="A41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
+      <c r="A41" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" ht="16" thickBot="1">
       <c r="A42" s="13"/>
@@ -1498,13 +1498,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" thickBot="1">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="20">
         <f xml:space="preserve"> SUM(F43:F47)</f>
         <v>43.5</v>
@@ -1512,14 +1512,14 @@
     </row>
     <row r="50" spans="1:6" ht="16" thickBot="1"/>
     <row r="51" spans="1:6">
-      <c r="A51" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
+      <c r="A51" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" ht="16" thickBot="1">
       <c r="A52" s="16"/>
@@ -1630,13 +1630,13 @@
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="16" thickBot="1">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="20">
         <f xml:space="preserve"> SUM(F53:F57)</f>
         <v>32.5</v>
@@ -1644,14 +1644,14 @@
     </row>
     <row r="60" spans="1:6" ht="16" thickBot="1"/>
     <row r="61" spans="1:6">
-      <c r="A61" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
+      <c r="A61" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" ht="16" thickBot="1">
       <c r="A62" s="16"/>
@@ -1742,13 +1742,13 @@
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="16" thickBot="1">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
       <c r="F68" s="20">
         <f xml:space="preserve"> SUM(F63:F67)</f>
         <v>18.5</v>
@@ -1756,14 +1756,14 @@
     </row>
     <row r="70" spans="1:6" ht="16" thickBot="1"/>
     <row r="71" spans="1:6">
-      <c r="A71" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
+      <c r="A71" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" ht="16" thickBot="1">
       <c r="A72" s="13"/>
@@ -1834,25 +1834,25 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="16" thickBot="1">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36"/>
       <c r="F78" s="20"/>
     </row>
     <row r="80" spans="1:6" ht="16" thickBot="1"/>
     <row r="81" spans="1:6">
-      <c r="A81" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28"/>
+      <c r="A81" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
     </row>
     <row r="82" spans="1:6" ht="16" thickBot="1">
       <c r="A82" s="13"/>
@@ -1923,25 +1923,25 @@
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" ht="16" thickBot="1">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36"/>
       <c r="F88" s="20"/>
     </row>
     <row r="90" spans="1:6" ht="16" thickBot="1"/>
     <row r="91" spans="1:6">
-      <c r="A91" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="28"/>
+      <c r="A91" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6" ht="16" thickBot="1">
       <c r="A92" s="13"/>
@@ -2012,25 +2012,25 @@
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6" ht="16" thickBot="1">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="25"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="36"/>
       <c r="F98" s="20"/>
     </row>
     <row r="100" spans="1:6" ht="16" thickBot="1"/>
     <row r="101" spans="1:6">
-      <c r="A101" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="28"/>
+      <c r="A101" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="25"/>
     </row>
     <row r="102" spans="1:6" ht="16" thickBot="1">
       <c r="A102" s="13"/>
@@ -2101,25 +2101,25 @@
       <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6" ht="16" thickBot="1">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="25"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="36"/>
       <c r="F108" s="20"/>
     </row>
     <row r="110" spans="1:6" ht="16" thickBot="1"/>
     <row r="111" spans="1:6">
-      <c r="A111" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="28"/>
+      <c r="A111" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="25"/>
     </row>
     <row r="112" spans="1:6" ht="16" thickBot="1">
       <c r="A112" s="13"/>
@@ -2190,28 +2190,17 @@
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6" ht="16" thickBot="1">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="36"/>
       <c r="F118" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A61:F61"/>
@@ -2225,6 +2214,17 @@
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A108:E108"/>
     <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
